--- a/CFFW/CA_CFFW.xlsx
+++ b/CFFW/CA_CFFW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Users\Xander\GitHub\cffw-java\CFFW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF90ECDD-DBA7-447C-930D-6820650114D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E0E2E4-6414-4A4A-ADD2-5FFFEFE5A0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7305" yWindow="9240" windowWidth="14955" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,7 +348,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,28 +441,28 @@
         <v>3</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R2">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -497,28 +497,28 @@
         <v>4</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -556,22 +556,22 @@
         <v>5</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R4">
         <v>9</v>
@@ -612,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M5">
         <v>7</v>
@@ -621,10 +621,10 @@
         <v>8</v>
       </c>
       <c r="O5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q5">
         <v>9</v>

--- a/CFFW/CA_CFFW.xlsx
+++ b/CFFW/CA_CFFW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Users\Xander\GitHub\cffw-java\CFFW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xande\OneDrive\Documents\GitHub\cffw-java\CFFW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E0E2E4-6414-4A4A-ADD2-5FFFEFE5A0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D7797E-2762-4E32-BDAB-E75F175727A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,15 +345,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +408,14 @@
       <c r="R1">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1">
+        <v>41</v>
+      </c>
+      <c r="T1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -464,8 +470,14 @@
       <c r="R2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -520,8 +532,14 @@
       <c r="R3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>8</v>
+      </c>
+      <c r="T3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -576,8 +594,14 @@
       <c r="R4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>9</v>
+      </c>
+      <c r="T4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -632,8 +656,14 @@
       <c r="R5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>9</v>
+      </c>
+      <c r="T5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -688,8 +718,14 @@
       <c r="R6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>9</v>
+      </c>
+      <c r="T6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -744,8 +780,14 @@
       <c r="R7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -800,8 +842,14 @@
       <c r="R8">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>11</v>
+      </c>
+      <c r="T8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -856,8 +904,14 @@
       <c r="R9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>11</v>
+      </c>
+      <c r="T9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -912,8 +966,14 @@
       <c r="R10">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>12</v>
+      </c>
+      <c r="T10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -957,19 +1017,25 @@
         <v>10</v>
       </c>
       <c r="O11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="S11">
+        <v>12</v>
+      </c>
+      <c r="T11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1010,22 +1076,28 @@
         <v>10</v>
       </c>
       <c r="N12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="S12">
+        <v>12</v>
+      </c>
+      <c r="T12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1066,22 +1138,28 @@
         <v>10</v>
       </c>
       <c r="N13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="S13">
+        <v>12</v>
+      </c>
+      <c r="T13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1122,19 +1200,25 @@
         <v>10</v>
       </c>
       <c r="N14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R14">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
